--- a/Particpants_Input/Test_all_tables_4_inputs.xlsx
+++ b/Particpants_Input/Test_all_tables_4_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danig\Documents\GitHub\Research\DataTables\Particpants_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E91D21-07F4-49BF-941D-853D40C68AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75740854-05CF-43C5-9CF6-7B999427ED98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D49EE537-FB84-4F27-9B75-E212CC4746D7}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21040" xr2:uid="{D49EE537-FB84-4F27-9B75-E212CC4746D7}"/>
   </bookViews>
   <sheets>
     <sheet name="p1_color" sheetId="6" r:id="rId1"/>
@@ -2210,7 +2210,7 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="42" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="AH60" sqref="AH60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
